--- a/Config/Translation_habitat.xlsx
+++ b/Config/Translation_habitat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>origTerm</t>
   </si>
@@ -39,9 +39,6 @@
     <t>marine</t>
   </si>
   <si>
-    <t>Host</t>
-  </si>
-  <si>
     <t>Terrestrial|Freshwater</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
   </si>
   <si>
     <t>terrestrial; brackish; marine</t>
-  </si>
-  <si>
-    <t>endoparasitic</t>
   </si>
 </sst>
 </file>
@@ -464,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -505,111 +499,103 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
